--- a/ig/ch-term/ValueSet-ch-vacd-recommendation-forecast-status-vs.xlsx
+++ b/ig/ch-term/ValueSet-ch-vacd-recommendation-forecast-status-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CH VACD Swiss Re" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/ValueSet-ch-vacd-recommendation-forecast-status-vs.xlsx
+++ b/ig/ch-term/ValueSet-ch-vacd-recommendation-forecast-status-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/ValueSet-ch-vacd-recommendation-forecast-status-vs.xlsx
+++ b/ig/ch-term/ValueSet-ch-vacd-recommendation-forecast-status-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
